--- a/flow.xlsx
+++ b/flow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michalfischbein/projects/final project flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59517651-C60A-0242-B071-6CD6D641D52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E5B1D3-5169-DD42-9FA3-DE21A46BF01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="500" windowWidth="28100" windowHeight="16100" xr2:uid="{0BA294BD-C3A5-D442-BD2F-C06C5A9B2827}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="F2:M20"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L6" sqref="F6:L9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
